--- a/biology/Zoologie/Cadmus_(insecte)/Cadmus_(insecte).xlsx
+++ b/biology/Zoologie/Cadmus_(insecte)/Cadmus_(insecte).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cadmus est un genre de coléoptères chrysomelidés appartenant à la sous-famille des Cryptocephalinae. Ils sont répandus dans toute l'Australie[1] et comprennent 5 sous-genres et 68 espèces[2]
-Ces chrysomèles produisent des œufs enfermés dans des matières fécales et les larves, encore abritées dans cet étui, se nourrissent de feuilles mortes. Les adultes se nourrissent d'eucalyptus, notamment d’Eucalyptus globulus, mais représentent rarement un problème majeur pour la sylviculture[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cadmus est un genre de coléoptères chrysomelidés appartenant à la sous-famille des Cryptocephalinae. Ils sont répandus dans toute l'Australie et comprennent 5 sous-genres et 68 espèces
+Ces chrysomèles produisent des œufs enfermés dans des matières fécales et les larves, encore abritées dans cet étui, se nourrissent de feuilles mortes. Les adultes se nourrissent d'eucalyptus, notamment d’Eucalyptus globulus, mais représentent rarement un problème majeur pour la sylviculture.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Quelques espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cadmus (Brachycaulus) colossus
 Cadmus (Cadmus) alternans
